--- a/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
+++ b/InputData/bldgs/SYCEU/Start Year Components Energy Use.xlsx
@@ -31013,19 +31013,19 @@
         </is>
       </c>
       <c r="B2" s="71" t="n">
-        <v>17289669247754.73</v>
+        <v>16225759898733.62</v>
       </c>
       <c r="C2" s="71" t="n">
-        <v>13096766862746.31</v>
+        <v>2825023754224.572</v>
       </c>
       <c r="D2" t="n">
-        <v>5180856912255.894</v>
+        <v>3723758241167.105</v>
       </c>
       <c r="E2" t="n">
-        <v>17842191508761.18</v>
+        <v>12114813689698.08</v>
       </c>
       <c r="F2" t="n">
-        <v>43174802159690.73</v>
+        <v>26723939146256.01</v>
       </c>
       <c r="G2" s="71" t="n">
         <v>1607676980259448</v>
@@ -31039,7 +31039,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296161590.1025599</v>
+        <v>785089739.2296888</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31064,16 +31064,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14323399635747.86</v>
+        <v>89405641269870.44</v>
       </c>
       <c r="C4" t="n">
-        <v>131448850208.5288</v>
+        <v>24017229375.92165</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2284275442889.133</v>
+        <v>2532344505600.346</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -31090,7 +31090,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125690102309.1967</v>
+        <v>1309561539526.5</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -31141,7 +31141,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2991587890942.93</v>
+        <v>10529981456924.24</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -31166,7 +31166,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>114302799461.431</v>
+        <v>61908469304.78194</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -31216,7 +31216,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2338808881373.042</v>
+        <v>14290619734463.4</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -31225,7 +31225,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>529043796067.8676</v>
+        <v>507413636787.1013</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -31335,19 +31335,19 @@
         </is>
       </c>
       <c r="B2" s="71" t="n">
-        <v>5610554921456.832</v>
+        <v>5910338189579.643</v>
       </c>
       <c r="C2" s="71" t="n">
-        <v>4249944213738.868</v>
+        <v>1029033209246.877</v>
       </c>
       <c r="D2" t="n">
-        <v>1681205223182.375</v>
+        <v>1356403070111.346</v>
       </c>
       <c r="E2" s="71" t="n">
-        <v>5789850224697.338</v>
+        <v>4412899393109.668</v>
       </c>
       <c r="F2" t="n">
-        <v>14010366263740.7</v>
+        <v>9734368010982.748</v>
       </c>
       <c r="G2">
         <f>SUM(INDEX('AEO Table 4'!$C$44:$AJ$45,0,MATCH(About!$A$34,'AEO Table 4'!$C$1:$AK$1,0)))*10^15*About!$A$80+INDEX('AEO Table 4'!$C$47:$AJ$47,MATCH(About!$A$34,'AEO Table 4'!$C$1:$AK$1,0))*10^15*About!$A$80</f>
@@ -31362,7 +31362,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96105416.65579759</v>
+        <v>285974025.0672946</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -31387,16 +31387,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4647990610275.796</v>
+        <v>32566584200621.3</v>
       </c>
       <c r="C4" t="n">
-        <v>42655587153.76099</v>
+        <v>8748431437.068325</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>741254945043.4935</v>
+        <v>922422896310.0853</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -31413,7 +31413,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40786854391.72607</v>
+        <v>477016277017.1563</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -31464,7 +31464,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>970780176531.1495</v>
+        <v>3835613982262.991</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -31489,7 +31489,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37091636911.32528</v>
+        <v>22550561124.66137</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -31539,7 +31539,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>758951226405.8214</v>
+        <v>5205450844613.547</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -31548,7 +31548,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>171676463624.6722</v>
+        <v>184828705350.8268</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -31658,19 +31658,19 @@
         </is>
       </c>
       <c r="B2" s="71" t="n">
-        <v>4297629138126.059</v>
+        <v>3399873514563.091</v>
       </c>
       <c r="C2" s="71" t="n">
-        <v>30779126421032.44</v>
+        <v>10285779408525.03</v>
       </c>
       <c r="D2" t="n">
-        <v>16220235205279.51</v>
+        <v>8170730457546.817</v>
       </c>
       <c r="E2" t="n">
-        <v>27453752360597.57</v>
+        <v>10723649657837.97</v>
       </c>
       <c r="F2" t="n">
-        <v>60988110046009.65</v>
+        <v>44014821589101.09</v>
       </c>
       <c r="G2">
         <f>SUM(INDEX('AEO Table 5'!$C$38:$AJ$40,0,MATCH(About!$A$34,'AEO Table 5'!$C$1:$AK$1,0)))*10^15</f>
@@ -31711,19 +31711,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33665452992712.39</v>
+        <v>39226054555061.99</v>
       </c>
       <c r="C4" t="n">
-        <v>595582242449.9124</v>
+        <v>19990326884.72181</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22659001788534.68</v>
+        <v>8256042633010.897</v>
       </c>
       <c r="F4" t="n">
-        <v>20250149053645.68</v>
+        <v>14614433814665.09</v>
       </c>
       <c r="G4">
         <f>INDEX('AEO Table 5'!$C$48:$AK$48,MATCH(About!$A$34,'AEO Table 5'!$C$1:$AK$1,0))*10^15</f>
@@ -31737,7 +31737,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3855611964675.32</v>
+        <v>2082940787168.423</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -31746,10 +31746,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>289757289262.2772</v>
+        <v>15747402285.40768</v>
       </c>
       <c r="F5" t="n">
-        <v>4847755432615.059</v>
+        <v>3498601453843.676</v>
       </c>
       <c r="G5">
         <f>INDEX('AEO Table 5'!$C$54:$AK$54,MATCH(About!$A$34,'AEO Table 5'!$C$1:$AK$1,0))*10^15</f>
@@ -31763,7 +31763,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3442557738129.06</v>
+        <v>2528937037967.853</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
